--- a/Code/Results/Cases/Case_5_234/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_234/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.043436441692386</v>
+        <v>1.070955003893758</v>
       </c>
       <c r="D2">
-        <v>1.060540905511513</v>
+        <v>1.076060471359031</v>
       </c>
       <c r="E2">
-        <v>1.041525449395193</v>
+        <v>1.065108339823106</v>
       </c>
       <c r="F2">
-        <v>1.065206446324581</v>
+        <v>1.08496578916929</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.071783461836829</v>
+        <v>1.062660197921192</v>
       </c>
       <c r="J2">
-        <v>1.064391292696107</v>
+        <v>1.075882042693381</v>
       </c>
       <c r="K2">
-        <v>1.071216640622033</v>
+        <v>1.078745398953193</v>
       </c>
       <c r="L2">
-        <v>1.052435064302139</v>
+        <v>1.067822468811518</v>
       </c>
       <c r="M2">
-        <v>1.075826379582322</v>
+        <v>1.087627441953888</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.050542505489646</v>
+        <v>1.072325022927828</v>
       </c>
       <c r="D3">
-        <v>1.0664033396698</v>
+        <v>1.077198851535017</v>
       </c>
       <c r="E3">
-        <v>1.047721443633969</v>
+        <v>1.066316203070301</v>
       </c>
       <c r="F3">
-        <v>1.071596246040594</v>
+        <v>1.086236525146257</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.075082583374926</v>
+        <v>1.063201114102707</v>
       </c>
       <c r="J3">
-        <v>1.069744134820995</v>
+        <v>1.076907821865162</v>
       </c>
       <c r="K3">
-        <v>1.076251635967407</v>
+        <v>1.079700426395129</v>
       </c>
       <c r="L3">
-        <v>1.057778068029986</v>
+        <v>1.068844685466318</v>
       </c>
       <c r="M3">
-        <v>1.081388216760965</v>
+        <v>1.088716194643674</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.055005340575294</v>
+        <v>1.073210065510805</v>
       </c>
       <c r="D4">
-        <v>1.070087773902178</v>
+        <v>1.077934222002555</v>
       </c>
       <c r="E4">
-        <v>1.051611740012678</v>
+        <v>1.067095971961824</v>
       </c>
       <c r="F4">
-        <v>1.075615172439579</v>
+        <v>1.087057808314186</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.07714289990282</v>
+        <v>1.063549131949797</v>
       </c>
       <c r="J4">
-        <v>1.073099493134055</v>
+        <v>1.077569620331845</v>
       </c>
       <c r="K4">
-        <v>1.079407955121898</v>
+        <v>1.08031656859472</v>
       </c>
       <c r="L4">
-        <v>1.061124742367303</v>
+        <v>1.069503760708313</v>
       </c>
       <c r="M4">
-        <v>1.08487923541472</v>
+        <v>1.089419159242752</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.056850861495824</v>
+        <v>1.073581795873477</v>
       </c>
       <c r="D5">
-        <v>1.071611963266376</v>
+        <v>1.078243079671593</v>
       </c>
       <c r="E5">
-        <v>1.053220208360396</v>
+        <v>1.067423361206658</v>
       </c>
       <c r="F5">
-        <v>1.077278474208077</v>
+        <v>1.087402848627433</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.077992071138246</v>
+        <v>1.063694964593371</v>
       </c>
       <c r="J5">
-        <v>1.074485460814463</v>
+        <v>1.077847378251785</v>
       </c>
       <c r="K5">
-        <v>1.080711743632681</v>
+        <v>1.080575162022377</v>
       </c>
       <c r="L5">
-        <v>1.062506516391126</v>
+        <v>1.069780274036464</v>
       </c>
       <c r="M5">
-        <v>1.086322342932235</v>
+        <v>1.089714323291805</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.057158982621583</v>
+        <v>1.073644191180414</v>
       </c>
       <c r="D6">
-        <v>1.071866467120354</v>
+        <v>1.078294921227862</v>
       </c>
       <c r="E6">
-        <v>1.053488733548581</v>
+        <v>1.067478306494346</v>
       </c>
       <c r="F6">
-        <v>1.077556250182368</v>
+        <v>1.087460769228626</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.078133677696378</v>
+        <v>1.063719422812496</v>
       </c>
       <c r="J6">
-        <v>1.074716762741719</v>
+        <v>1.077893988058017</v>
       </c>
       <c r="K6">
-        <v>1.08092933261091</v>
+        <v>1.080618555736189</v>
       </c>
       <c r="L6">
-        <v>1.062737082683795</v>
+        <v>1.069826669030599</v>
       </c>
       <c r="M6">
-        <v>1.086563245414008</v>
+        <v>1.089763861515428</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.055030118787246</v>
+        <v>1.073215033924772</v>
       </c>
       <c r="D7">
-        <v>1.070108235742958</v>
+        <v>1.077938350116273</v>
       </c>
       <c r="E7">
-        <v>1.051633336740849</v>
+        <v>1.067100348218802</v>
       </c>
       <c r="F7">
-        <v>1.075637498896981</v>
+        <v>1.087062419646487</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.077154312258638</v>
+        <v>1.063551082432213</v>
       </c>
       <c r="J7">
-        <v>1.073118107618839</v>
+        <v>1.07757333355714</v>
       </c>
       <c r="K7">
-        <v>1.079425465756488</v>
+        <v>1.080320025628202</v>
       </c>
       <c r="L7">
-        <v>1.061143302934153</v>
+        <v>1.069507457694836</v>
       </c>
       <c r="M7">
-        <v>1.084898612971431</v>
+        <v>1.089423104657352</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.045867061604434</v>
+        <v>1.071418312319541</v>
       </c>
       <c r="D8">
-        <v>1.062545541136829</v>
+        <v>1.076445451072665</v>
       </c>
       <c r="E8">
-        <v>1.043644955124408</v>
+        <v>1.065516918566539</v>
       </c>
       <c r="F8">
-        <v>1.067390772434292</v>
+        <v>1.085395443549037</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.072914351722911</v>
+        <v>1.062843416922727</v>
       </c>
       <c r="J8">
-        <v>1.066223548709644</v>
+        <v>1.076229115886992</v>
       </c>
       <c r="K8">
-        <v>1.072940049609775</v>
+        <v>1.07906853512987</v>
       </c>
       <c r="L8">
-        <v>1.05426448276167</v>
+        <v>1.068168424792613</v>
       </c>
       <c r="M8">
-        <v>1.077729181804693</v>
+        <v>1.087995710663569</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.028598922518593</v>
+        <v>1.068240877960937</v>
       </c>
       <c r="D9">
-        <v>1.048318458826738</v>
+        <v>1.073805103750211</v>
       </c>
       <c r="E9">
-        <v>1.028585300379116</v>
+        <v>1.062712699032934</v>
       </c>
       <c r="F9">
-        <v>1.051901331091811</v>
+        <v>1.082450397870894</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.06483156190907</v>
+        <v>1.061581052946452</v>
       </c>
       <c r="J9">
-        <v>1.053180682395715</v>
+        <v>1.073845301376758</v>
       </c>
       <c r="K9">
-        <v>1.060673394790073</v>
+        <v>1.076849095439672</v>
       </c>
       <c r="L9">
-        <v>1.041231021227513</v>
+        <v>1.065790530059979</v>
       </c>
       <c r="M9">
-        <v>1.064204951451998</v>
+        <v>1.085468539376887</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.016198254346123</v>
+        <v>1.066114562561246</v>
       </c>
       <c r="D10">
-        <v>1.03812458586024</v>
+        <v>1.072038104032136</v>
       </c>
       <c r="E10">
-        <v>1.017771402765775</v>
+        <v>1.060833469181777</v>
       </c>
       <c r="F10">
-        <v>1.040819232602092</v>
+        <v>1.080481618091814</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.058967176795947</v>
+        <v>1.060728979362916</v>
       </c>
       <c r="J10">
-        <v>1.043783617309298</v>
+        <v>1.072245633443683</v>
       </c>
       <c r="K10">
-        <v>1.051837995519408</v>
+        <v>1.075359698263004</v>
       </c>
       <c r="L10">
-        <v>1.031827035044812</v>
+        <v>1.064192625556583</v>
       </c>
       <c r="M10">
-        <v>1.05448862298315</v>
+        <v>1.08377547083169</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.010582785774017</v>
+        <v>1.065191857140124</v>
       </c>
       <c r="D11">
-        <v>1.033515369494852</v>
+        <v>1.0712713080548</v>
       </c>
       <c r="E11">
-        <v>1.012875805160218</v>
+        <v>1.060017355716842</v>
       </c>
       <c r="F11">
-        <v>1.035812173700467</v>
+        <v>1.079627764360899</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056298102685802</v>
+        <v>1.060357494890997</v>
       </c>
       <c r="J11">
-        <v>1.039521840660365</v>
+        <v>1.071550415009401</v>
       </c>
       <c r="K11">
-        <v>1.047831752902214</v>
+        <v>1.074712398066148</v>
       </c>
       <c r="L11">
-        <v>1.027558920168993</v>
+        <v>1.063497648373692</v>
       </c>
       <c r="M11">
-        <v>1.050088915049607</v>
+        <v>1.083040326337599</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.008456558313428</v>
+        <v>1.064848815960367</v>
       </c>
       <c r="D12">
-        <v>1.031771331323767</v>
+        <v>1.070986229187464</v>
       </c>
       <c r="E12">
-        <v>1.011022456795903</v>
+        <v>1.059713848654372</v>
       </c>
       <c r="F12">
-        <v>1.033918158282747</v>
+        <v>1.079310395122609</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055285540805468</v>
+        <v>1.060219125481587</v>
       </c>
       <c r="J12">
-        <v>1.037907283927834</v>
+        <v>1.071291790966703</v>
       </c>
       <c r="K12">
-        <v>1.0463141470732</v>
+        <v>1.074471599150723</v>
       </c>
       <c r="L12">
-        <v>1.025941487426418</v>
+        <v>1.063239035076239</v>
       </c>
       <c r="M12">
-        <v>1.048423165268471</v>
+        <v>1.082766949878216</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.008914529421311</v>
+        <v>1.064922413481803</v>
       </c>
       <c r="D13">
-        <v>1.032146926250962</v>
+        <v>1.071047391273715</v>
       </c>
       <c r="E13">
-        <v>1.011421636251166</v>
+        <v>1.059778968623904</v>
       </c>
       <c r="F13">
-        <v>1.034326027136873</v>
+        <v>1.079378481494884</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055503724667577</v>
+        <v>1.060248823598408</v>
       </c>
       <c r="J13">
-        <v>1.0382550842387</v>
+        <v>1.071347284393503</v>
       </c>
       <c r="K13">
-        <v>1.046641055852161</v>
+        <v>1.074523267834078</v>
       </c>
       <c r="L13">
-        <v>1.026289928592192</v>
+        <v>1.063294529773327</v>
       </c>
       <c r="M13">
-        <v>1.048781944909738</v>
+        <v>1.082825604219769</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.010407876671626</v>
+        <v>1.065163507560496</v>
       </c>
       <c r="D14">
-        <v>1.033371875410204</v>
+        <v>1.071247748614</v>
       </c>
       <c r="E14">
-        <v>1.01272333687426</v>
+        <v>1.059992275235783</v>
       </c>
       <c r="F14">
-        <v>1.035656328670347</v>
+        <v>1.079601534836913</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056214845751876</v>
+        <v>1.06034606507555</v>
       </c>
       <c r="J14">
-        <v>1.039389040453279</v>
+        <v>1.071529045032601</v>
       </c>
       <c r="K14">
-        <v>1.047706924053219</v>
+        <v>1.074692500982908</v>
       </c>
       <c r="L14">
-        <v>1.027425892991881</v>
+        <v>1.063476280896219</v>
       </c>
       <c r="M14">
-        <v>1.049951882410909</v>
+        <v>1.083017735331014</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.011322514101361</v>
+        <v>1.065312012639563</v>
       </c>
       <c r="D15">
-        <v>1.034122285946254</v>
+        <v>1.071371161210006</v>
       </c>
       <c r="E15">
-        <v>1.013520639671733</v>
+        <v>1.060123651763262</v>
       </c>
       <c r="F15">
-        <v>1.036471351840165</v>
+        <v>1.079738937369989</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.056650135435418</v>
+        <v>1.060405927838091</v>
       </c>
       <c r="J15">
-        <v>1.040083445808257</v>
+        <v>1.071640982051738</v>
       </c>
       <c r="K15">
-        <v>1.048359653531621</v>
+        <v>1.074796722885693</v>
       </c>
       <c r="L15">
-        <v>1.028121465910048</v>
+        <v>1.063588201589801</v>
       </c>
       <c r="M15">
-        <v>1.050668462252701</v>
+        <v>1.083136072269439</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.016565469201796</v>
+        <v>1.06617575678823</v>
       </c>
       <c r="D16">
-        <v>1.03842615351967</v>
+        <v>1.072088958048185</v>
       </c>
       <c r="E16">
-        <v>1.018091579111686</v>
+        <v>1.060887580946483</v>
       </c>
       <c r="F16">
-        <v>1.041146907384203</v>
+        <v>1.080538256426921</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.059141444080664</v>
+        <v>1.060753579959092</v>
       </c>
       <c r="J16">
-        <v>1.044062182761752</v>
+        <v>1.072291718563555</v>
       </c>
       <c r="K16">
-        <v>1.052099876772592</v>
+        <v>1.075402606844056</v>
       </c>
       <c r="L16">
-        <v>1.032105949096626</v>
+        <v>1.06423868362709</v>
       </c>
       <c r="M16">
-        <v>1.054776348522338</v>
+        <v>1.083824216624742</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.019786101687123</v>
+        <v>1.066717020926358</v>
       </c>
       <c r="D17">
-        <v>1.041071829721836</v>
+        <v>1.072538761295075</v>
       </c>
       <c r="E17">
-        <v>1.02089982482561</v>
+        <v>1.061366127927156</v>
       </c>
       <c r="F17">
-        <v>1.044022048430863</v>
+        <v>1.081039280234528</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.060668331946176</v>
+        <v>1.060970973021193</v>
       </c>
       <c r="J17">
-        <v>1.046504603279302</v>
+        <v>1.072699221288854</v>
       </c>
       <c r="K17">
-        <v>1.054396105980439</v>
+        <v>1.07578202074205</v>
       </c>
       <c r="L17">
-        <v>1.03455106603687</v>
+        <v>1.064645886608836</v>
       </c>
       <c r="M17">
-        <v>1.057299860065357</v>
+        <v>1.084255322880697</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.021641171509011</v>
+        <v>1.067032538972874</v>
       </c>
       <c r="D18">
-        <v>1.042596368779161</v>
+        <v>1.072800962816098</v>
       </c>
       <c r="E18">
-        <v>1.022517478343892</v>
+        <v>1.061645025683791</v>
       </c>
       <c r="F18">
-        <v>1.045679169142056</v>
+        <v>1.081331388203751</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.061546542300068</v>
+        <v>1.061097530736167</v>
       </c>
       <c r="J18">
-        <v>1.047910815290788</v>
+        <v>1.072936664916768</v>
       </c>
       <c r="K18">
-        <v>1.055718223181988</v>
+        <v>1.076003097021784</v>
       </c>
       <c r="L18">
-        <v>1.035958529842121</v>
+        <v>1.064883105031117</v>
       </c>
       <c r="M18">
-        <v>1.058753401580718</v>
+        <v>1.084506583918807</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.022269819094567</v>
+        <v>1.067140090097917</v>
       </c>
       <c r="D19">
-        <v>1.04311311067554</v>
+        <v>1.07289033959199</v>
       </c>
       <c r="E19">
-        <v>1.02306568683632</v>
+        <v>1.06174008369116</v>
       </c>
       <c r="F19">
-        <v>1.046240910041147</v>
+        <v>1.081430967469713</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0618439334364</v>
+        <v>1.061140642361984</v>
       </c>
       <c r="J19">
-        <v>1.048387247650417</v>
+        <v>1.07301758553155</v>
       </c>
       <c r="K19">
-        <v>1.056166175725549</v>
+        <v>1.076078439556293</v>
       </c>
       <c r="L19">
-        <v>1.03643533516158</v>
+        <v>1.064963940324808</v>
       </c>
       <c r="M19">
-        <v>1.059245977439556</v>
+        <v>1.084592224365453</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.019443009510147</v>
+        <v>1.066658968338159</v>
       </c>
       <c r="D20">
-        <v>1.040789919686791</v>
+        <v>1.072490518366787</v>
       </c>
       <c r="E20">
-        <v>1.020600651123416</v>
+        <v>1.061314808265241</v>
       </c>
       <c r="F20">
-        <v>1.043715650902905</v>
+        <v>1.080985538687892</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.060505804958965</v>
+        <v>1.060947674063613</v>
       </c>
       <c r="J20">
-        <v>1.046244476573419</v>
+        <v>1.072655525570932</v>
       </c>
       <c r="K20">
-        <v>1.054151541328639</v>
+        <v>1.075741336989926</v>
       </c>
       <c r="L20">
-        <v>1.034290683369048</v>
+        <v>1.064602228263493</v>
       </c>
       <c r="M20">
-        <v>1.05703102995248</v>
+        <v>1.084209089567402</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.009969268088994</v>
+        <v>1.065092519905396</v>
       </c>
       <c r="D21">
-        <v>1.033012063849916</v>
+        <v>1.071188755499872</v>
       </c>
       <c r="E21">
-        <v>1.012341007082329</v>
+        <v>1.059929471915463</v>
       </c>
       <c r="F21">
-        <v>1.035265556056524</v>
+        <v>1.07953585702909</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05600603647237</v>
+        <v>1.060317440498178</v>
       </c>
       <c r="J21">
-        <v>1.039056011720597</v>
+        <v>1.071475531837091</v>
       </c>
       <c r="K21">
-        <v>1.047393887809091</v>
+        <v>1.074642676094226</v>
       </c>
       <c r="L21">
-        <v>1.027092287466123</v>
+        <v>1.063422772683248</v>
       </c>
       <c r="M21">
-        <v>1.049608257007189</v>
+        <v>1.082961166137732</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.003777003580029</v>
+        <v>1.064105849991591</v>
       </c>
       <c r="D22">
-        <v>1.027935283204804</v>
+        <v>1.070368797687289</v>
       </c>
       <c r="E22">
-        <v>1.006944177686461</v>
+        <v>1.059056334123165</v>
       </c>
       <c r="F22">
-        <v>1.029753252912136</v>
+        <v>1.078623167075514</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053053511997762</v>
+        <v>1.059918966976644</v>
       </c>
       <c r="J22">
-        <v>1.034352310528176</v>
+        <v>1.0707313697279</v>
       </c>
       <c r="K22">
-        <v>1.042972932411234</v>
+        <v>1.073949802812785</v>
       </c>
       <c r="L22">
-        <v>1.022379312934293</v>
+        <v>1.062678492441738</v>
       </c>
       <c r="M22">
-        <v>1.044757470280496</v>
+        <v>1.082174744746364</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.007083258845492</v>
+        <v>1.06462907370791</v>
       </c>
       <c r="D23">
-        <v>1.030645235418492</v>
+        <v>1.07080361564111</v>
       </c>
       <c r="E23">
-        <v>1.009825507969558</v>
+        <v>1.059519404271736</v>
       </c>
       <c r="F23">
-        <v>1.032695381010588</v>
+        <v>1.079107118631064</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.054631001921478</v>
+        <v>1.060130416925206</v>
       </c>
       <c r="J23">
-        <v>1.036864225765486</v>
+        <v>1.071126079601026</v>
       </c>
       <c r="K23">
-        <v>1.045333765655091</v>
+        <v>1.074317308939809</v>
       </c>
       <c r="L23">
-        <v>1.024896438253995</v>
+        <v>1.063073308340392</v>
       </c>
       <c r="M23">
-        <v>1.047347338130563</v>
+        <v>1.082591814258136</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.019598110372296</v>
+        <v>1.066685200397161</v>
       </c>
       <c r="D24">
-        <v>1.040917360101609</v>
+        <v>1.072512317766929</v>
       </c>
       <c r="E24">
-        <v>1.020735897511165</v>
+        <v>1.061337998123502</v>
       </c>
       <c r="F24">
-        <v>1.043854160043838</v>
+        <v>1.081009822583139</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.060579282097856</v>
+        <v>1.060958202613276</v>
       </c>
       <c r="J24">
-        <v>1.046362073337688</v>
+        <v>1.07267527054414</v>
       </c>
       <c r="K24">
-        <v>1.054262102649509</v>
+        <v>1.075759720934847</v>
       </c>
       <c r="L24">
-        <v>1.034408396781918</v>
+        <v>1.064621956505239</v>
       </c>
       <c r="M24">
-        <v>1.057152559317178</v>
+        <v>1.084229981016674</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.033209003734891</v>
+        <v>1.069063707975156</v>
       </c>
       <c r="D25">
-        <v>1.052113209830634</v>
+        <v>1.074488870017843</v>
       </c>
       <c r="E25">
-        <v>1.032605979658788</v>
+        <v>1.063439351369603</v>
       </c>
       <c r="F25">
-        <v>1.056029989574354</v>
+        <v>1.083212695830281</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.066999849995613</v>
+        <v>1.061909242346292</v>
       </c>
       <c r="J25">
-        <v>1.056668205040448</v>
+        <v>1.074463396906063</v>
       </c>
       <c r="K25">
-        <v>1.063953024131312</v>
+        <v>1.077424577174966</v>
       </c>
       <c r="L25">
-        <v>1.04471837001265</v>
+        <v>1.066407478462817</v>
       </c>
       <c r="M25">
-        <v>1.067816601496061</v>
+        <v>1.08612331436963</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_234/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_234/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.070955003893758</v>
+        <v>1.043436441692385</v>
       </c>
       <c r="D2">
-        <v>1.076060471359031</v>
+        <v>1.060540905511512</v>
       </c>
       <c r="E2">
-        <v>1.065108339823106</v>
+        <v>1.041525449395192</v>
       </c>
       <c r="F2">
-        <v>1.08496578916929</v>
+        <v>1.06520644632458</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062660197921192</v>
+        <v>1.071783461836829</v>
       </c>
       <c r="J2">
-        <v>1.075882042693381</v>
+        <v>1.064391292696106</v>
       </c>
       <c r="K2">
-        <v>1.078745398953193</v>
+        <v>1.071216640622032</v>
       </c>
       <c r="L2">
-        <v>1.067822468811518</v>
+        <v>1.052435064302138</v>
       </c>
       <c r="M2">
-        <v>1.087627441953888</v>
+        <v>1.075826379582322</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.072325022927828</v>
+        <v>1.050542505489645</v>
       </c>
       <c r="D3">
-        <v>1.077198851535017</v>
+        <v>1.0664033396698</v>
       </c>
       <c r="E3">
-        <v>1.066316203070301</v>
+        <v>1.047721443633968</v>
       </c>
       <c r="F3">
-        <v>1.086236525146257</v>
+        <v>1.071596246040593</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.063201114102707</v>
+        <v>1.075082583374925</v>
       </c>
       <c r="J3">
-        <v>1.076907821865162</v>
+        <v>1.069744134820994</v>
       </c>
       <c r="K3">
-        <v>1.079700426395129</v>
+        <v>1.076251635967406</v>
       </c>
       <c r="L3">
-        <v>1.068844685466318</v>
+        <v>1.057778068029986</v>
       </c>
       <c r="M3">
-        <v>1.088716194643674</v>
+        <v>1.081388216760965</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.073210065510805</v>
+        <v>1.055005340575295</v>
       </c>
       <c r="D4">
-        <v>1.077934222002555</v>
+        <v>1.070087773902178</v>
       </c>
       <c r="E4">
-        <v>1.067095971961824</v>
+        <v>1.051611740012679</v>
       </c>
       <c r="F4">
-        <v>1.087057808314186</v>
+        <v>1.075615172439579</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063549131949797</v>
+        <v>1.077142899902821</v>
       </c>
       <c r="J4">
-        <v>1.077569620331845</v>
+        <v>1.073099493134056</v>
       </c>
       <c r="K4">
-        <v>1.08031656859472</v>
+        <v>1.079407955121899</v>
       </c>
       <c r="L4">
-        <v>1.069503760708313</v>
+        <v>1.061124742367304</v>
       </c>
       <c r="M4">
-        <v>1.089419159242752</v>
+        <v>1.084879235414721</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.073581795873477</v>
+        <v>1.056850861495824</v>
       </c>
       <c r="D5">
-        <v>1.078243079671593</v>
+        <v>1.071611963266376</v>
       </c>
       <c r="E5">
-        <v>1.067423361206658</v>
+        <v>1.053220208360396</v>
       </c>
       <c r="F5">
-        <v>1.087402848627433</v>
+        <v>1.077278474208078</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.063694964593371</v>
+        <v>1.077992071138247</v>
       </c>
       <c r="J5">
-        <v>1.077847378251785</v>
+        <v>1.074485460814463</v>
       </c>
       <c r="K5">
-        <v>1.080575162022377</v>
+        <v>1.080711743632681</v>
       </c>
       <c r="L5">
-        <v>1.069780274036464</v>
+        <v>1.062506516391126</v>
       </c>
       <c r="M5">
-        <v>1.089714323291805</v>
+        <v>1.086322342932235</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.073644191180414</v>
+        <v>1.057158982621582</v>
       </c>
       <c r="D6">
-        <v>1.078294921227862</v>
+        <v>1.071866467120353</v>
       </c>
       <c r="E6">
-        <v>1.067478306494346</v>
+        <v>1.05348873354858</v>
       </c>
       <c r="F6">
-        <v>1.087460769228626</v>
+        <v>1.077556250182367</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063719422812496</v>
+        <v>1.078133677696377</v>
       </c>
       <c r="J6">
-        <v>1.077893988058017</v>
+        <v>1.074716762741718</v>
       </c>
       <c r="K6">
-        <v>1.080618555736189</v>
+        <v>1.080929332610909</v>
       </c>
       <c r="L6">
-        <v>1.069826669030599</v>
+        <v>1.062737082683794</v>
       </c>
       <c r="M6">
-        <v>1.089763861515428</v>
+        <v>1.086563245414007</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.073215033924772</v>
+        <v>1.055030118787245</v>
       </c>
       <c r="D7">
-        <v>1.077938350116273</v>
+        <v>1.070108235742957</v>
       </c>
       <c r="E7">
-        <v>1.067100348218802</v>
+        <v>1.051633336740847</v>
       </c>
       <c r="F7">
-        <v>1.087062419646487</v>
+        <v>1.075637498896981</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063551082432213</v>
+        <v>1.077154312258638</v>
       </c>
       <c r="J7">
-        <v>1.07757333355714</v>
+        <v>1.073118107618838</v>
       </c>
       <c r="K7">
-        <v>1.080320025628202</v>
+        <v>1.079425465756488</v>
       </c>
       <c r="L7">
-        <v>1.069507457694836</v>
+        <v>1.061143302934152</v>
       </c>
       <c r="M7">
-        <v>1.089423104657352</v>
+        <v>1.08489861297143</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.071418312319541</v>
+        <v>1.045867061604435</v>
       </c>
       <c r="D8">
-        <v>1.076445451072665</v>
+        <v>1.06254554113683</v>
       </c>
       <c r="E8">
-        <v>1.065516918566539</v>
+        <v>1.043644955124408</v>
       </c>
       <c r="F8">
-        <v>1.085395443549037</v>
+        <v>1.067390772434294</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062843416922727</v>
+        <v>1.072914351722912</v>
       </c>
       <c r="J8">
-        <v>1.076229115886992</v>
+        <v>1.066223548709645</v>
       </c>
       <c r="K8">
-        <v>1.07906853512987</v>
+        <v>1.072940049609776</v>
       </c>
       <c r="L8">
-        <v>1.068168424792613</v>
+        <v>1.054264482761671</v>
       </c>
       <c r="M8">
-        <v>1.087995710663569</v>
+        <v>1.077729181804695</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.068240877960937</v>
+        <v>1.028598922518595</v>
       </c>
       <c r="D9">
-        <v>1.073805103750211</v>
+        <v>1.048318458826739</v>
       </c>
       <c r="E9">
-        <v>1.062712699032934</v>
+        <v>1.028585300379117</v>
       </c>
       <c r="F9">
-        <v>1.082450397870894</v>
+        <v>1.051901331091813</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.061581052946452</v>
+        <v>1.064831561909071</v>
       </c>
       <c r="J9">
-        <v>1.073845301376758</v>
+        <v>1.053180682395716</v>
       </c>
       <c r="K9">
-        <v>1.076849095439672</v>
+        <v>1.060673394790074</v>
       </c>
       <c r="L9">
-        <v>1.065790530059979</v>
+        <v>1.041231021227514</v>
       </c>
       <c r="M9">
-        <v>1.085468539376887</v>
+        <v>1.064204951452</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.066114562561246</v>
+        <v>1.016198254346123</v>
       </c>
       <c r="D10">
-        <v>1.072038104032136</v>
+        <v>1.03812458586024</v>
       </c>
       <c r="E10">
-        <v>1.060833469181777</v>
+        <v>1.017771402765775</v>
       </c>
       <c r="F10">
-        <v>1.080481618091814</v>
+        <v>1.040819232602092</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.060728979362916</v>
+        <v>1.058967176795947</v>
       </c>
       <c r="J10">
-        <v>1.072245633443683</v>
+        <v>1.043783617309298</v>
       </c>
       <c r="K10">
-        <v>1.075359698263004</v>
+        <v>1.051837995519407</v>
       </c>
       <c r="L10">
-        <v>1.064192625556583</v>
+        <v>1.031827035044812</v>
       </c>
       <c r="M10">
-        <v>1.08377547083169</v>
+        <v>1.05448862298315</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.065191857140124</v>
+        <v>1.010582785774017</v>
       </c>
       <c r="D11">
-        <v>1.0712713080548</v>
+        <v>1.033515369494851</v>
       </c>
       <c r="E11">
-        <v>1.060017355716842</v>
+        <v>1.012875805160217</v>
       </c>
       <c r="F11">
-        <v>1.079627764360899</v>
+        <v>1.035812173700467</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.060357494890997</v>
+        <v>1.056298102685802</v>
       </c>
       <c r="J11">
-        <v>1.071550415009401</v>
+        <v>1.039521840660364</v>
       </c>
       <c r="K11">
-        <v>1.074712398066148</v>
+        <v>1.047831752902213</v>
       </c>
       <c r="L11">
-        <v>1.063497648373692</v>
+        <v>1.027558920168992</v>
       </c>
       <c r="M11">
-        <v>1.083040326337599</v>
+        <v>1.050088915049606</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.064848815960367</v>
+        <v>1.008456558313432</v>
       </c>
       <c r="D12">
-        <v>1.070986229187464</v>
+        <v>1.03177133132377</v>
       </c>
       <c r="E12">
-        <v>1.059713848654372</v>
+        <v>1.011022456795906</v>
       </c>
       <c r="F12">
-        <v>1.079310395122609</v>
+        <v>1.03391815828275</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.060219125481587</v>
+        <v>1.05528554080547</v>
       </c>
       <c r="J12">
-        <v>1.071291790966703</v>
+        <v>1.037907283927838</v>
       </c>
       <c r="K12">
-        <v>1.074471599150723</v>
+        <v>1.046314147073204</v>
       </c>
       <c r="L12">
-        <v>1.063239035076239</v>
+        <v>1.025941487426421</v>
       </c>
       <c r="M12">
-        <v>1.082766949878216</v>
+        <v>1.048423165268475</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.064922413481803</v>
+        <v>1.008914529421309</v>
       </c>
       <c r="D13">
-        <v>1.071047391273715</v>
+        <v>1.032146926250961</v>
       </c>
       <c r="E13">
-        <v>1.059778968623904</v>
+        <v>1.011421636251165</v>
       </c>
       <c r="F13">
-        <v>1.079378481494884</v>
+        <v>1.034326027136871</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.060248823598408</v>
+        <v>1.055503724667576</v>
       </c>
       <c r="J13">
-        <v>1.071347284393503</v>
+        <v>1.038255084238698</v>
       </c>
       <c r="K13">
-        <v>1.074523267834078</v>
+        <v>1.046641055852159</v>
       </c>
       <c r="L13">
-        <v>1.063294529773327</v>
+        <v>1.026289928592191</v>
       </c>
       <c r="M13">
-        <v>1.082825604219769</v>
+        <v>1.048781944909736</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.065163507560496</v>
+        <v>1.010407876671627</v>
       </c>
       <c r="D14">
-        <v>1.071247748614</v>
+        <v>1.033371875410205</v>
       </c>
       <c r="E14">
-        <v>1.059992275235783</v>
+        <v>1.012723336874261</v>
       </c>
       <c r="F14">
-        <v>1.079601534836913</v>
+        <v>1.035656328670348</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.06034606507555</v>
+        <v>1.056214845751878</v>
       </c>
       <c r="J14">
-        <v>1.071529045032601</v>
+        <v>1.03938904045328</v>
       </c>
       <c r="K14">
-        <v>1.074692500982908</v>
+        <v>1.04770692405322</v>
       </c>
       <c r="L14">
-        <v>1.063476280896219</v>
+        <v>1.027425892991882</v>
       </c>
       <c r="M14">
-        <v>1.083017735331014</v>
+        <v>1.04995188241091</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.065312012639563</v>
+        <v>1.011322514101363</v>
       </c>
       <c r="D15">
-        <v>1.071371161210006</v>
+        <v>1.034122285946256</v>
       </c>
       <c r="E15">
-        <v>1.060123651763262</v>
+        <v>1.013520639671734</v>
       </c>
       <c r="F15">
-        <v>1.079738937369989</v>
+        <v>1.036471351840167</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.060405927838091</v>
+        <v>1.056650135435419</v>
       </c>
       <c r="J15">
-        <v>1.071640982051738</v>
+        <v>1.040083445808259</v>
       </c>
       <c r="K15">
-        <v>1.074796722885693</v>
+        <v>1.048359653531623</v>
       </c>
       <c r="L15">
-        <v>1.063588201589801</v>
+        <v>1.028121465910049</v>
       </c>
       <c r="M15">
-        <v>1.083136072269439</v>
+        <v>1.050668462252703</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.06617575678823</v>
+        <v>1.016565469201797</v>
       </c>
       <c r="D16">
-        <v>1.072088958048185</v>
+        <v>1.03842615351967</v>
       </c>
       <c r="E16">
-        <v>1.060887580946483</v>
+        <v>1.018091579111687</v>
       </c>
       <c r="F16">
-        <v>1.080538256426921</v>
+        <v>1.041146907384204</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.060753579959092</v>
+        <v>1.059141444080665</v>
       </c>
       <c r="J16">
-        <v>1.072291718563555</v>
+        <v>1.044062182761753</v>
       </c>
       <c r="K16">
-        <v>1.075402606844056</v>
+        <v>1.052099876772593</v>
       </c>
       <c r="L16">
-        <v>1.06423868362709</v>
+        <v>1.032105949096627</v>
       </c>
       <c r="M16">
-        <v>1.083824216624742</v>
+        <v>1.054776348522338</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.066717020926358</v>
+        <v>1.019786101687126</v>
       </c>
       <c r="D17">
-        <v>1.072538761295075</v>
+        <v>1.041071829721838</v>
       </c>
       <c r="E17">
-        <v>1.061366127927156</v>
+        <v>1.020899824825612</v>
       </c>
       <c r="F17">
-        <v>1.081039280234528</v>
+        <v>1.044022048430866</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.060970973021193</v>
+        <v>1.060668331946178</v>
       </c>
       <c r="J17">
-        <v>1.072699221288854</v>
+        <v>1.046504603279305</v>
       </c>
       <c r="K17">
-        <v>1.07578202074205</v>
+        <v>1.054396105980442</v>
       </c>
       <c r="L17">
-        <v>1.064645886608836</v>
+        <v>1.034551066036872</v>
       </c>
       <c r="M17">
-        <v>1.084255322880697</v>
+        <v>1.057299860065359</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.067032538972874</v>
+        <v>1.021641171509011</v>
       </c>
       <c r="D18">
-        <v>1.072800962816098</v>
+        <v>1.042596368779161</v>
       </c>
       <c r="E18">
-        <v>1.061645025683791</v>
+        <v>1.022517478343892</v>
       </c>
       <c r="F18">
-        <v>1.081331388203751</v>
+        <v>1.045679169142057</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.061097530736167</v>
+        <v>1.061546542300068</v>
       </c>
       <c r="J18">
-        <v>1.072936664916768</v>
+        <v>1.047910815290789</v>
       </c>
       <c r="K18">
-        <v>1.076003097021784</v>
+        <v>1.055718223181988</v>
       </c>
       <c r="L18">
-        <v>1.064883105031117</v>
+        <v>1.035958529842122</v>
       </c>
       <c r="M18">
-        <v>1.084506583918807</v>
+        <v>1.058753401580719</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.067140090097917</v>
+        <v>1.022269819094569</v>
       </c>
       <c r="D19">
-        <v>1.07289033959199</v>
+        <v>1.043113110675542</v>
       </c>
       <c r="E19">
-        <v>1.06174008369116</v>
+        <v>1.023065686836321</v>
       </c>
       <c r="F19">
-        <v>1.081430967469713</v>
+        <v>1.046240910041148</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.061140642361984</v>
+        <v>1.061843933436401</v>
       </c>
       <c r="J19">
-        <v>1.07301758553155</v>
+        <v>1.048387247650419</v>
       </c>
       <c r="K19">
-        <v>1.076078439556293</v>
+        <v>1.056166175725551</v>
       </c>
       <c r="L19">
-        <v>1.064963940324808</v>
+        <v>1.036435335161582</v>
       </c>
       <c r="M19">
-        <v>1.084592224365453</v>
+        <v>1.059245977439558</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.066658968338159</v>
+        <v>1.019443009510145</v>
       </c>
       <c r="D20">
-        <v>1.072490518366787</v>
+        <v>1.040789919686789</v>
       </c>
       <c r="E20">
-        <v>1.061314808265241</v>
+        <v>1.020600651123414</v>
       </c>
       <c r="F20">
-        <v>1.080985538687892</v>
+        <v>1.043715650902903</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.060947674063613</v>
+        <v>1.060505804958964</v>
       </c>
       <c r="J20">
-        <v>1.072655525570932</v>
+        <v>1.046244476573418</v>
       </c>
       <c r="K20">
-        <v>1.075741336989926</v>
+        <v>1.054151541328637</v>
       </c>
       <c r="L20">
-        <v>1.064602228263493</v>
+        <v>1.034290683369046</v>
       </c>
       <c r="M20">
-        <v>1.084209089567402</v>
+        <v>1.057031029952478</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.065092519905396</v>
+        <v>1.009969268088994</v>
       </c>
       <c r="D21">
-        <v>1.071188755499872</v>
+        <v>1.033012063849916</v>
       </c>
       <c r="E21">
-        <v>1.059929471915463</v>
+        <v>1.012341007082329</v>
       </c>
       <c r="F21">
-        <v>1.07953585702909</v>
+        <v>1.035265556056524</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.060317440498178</v>
+        <v>1.05600603647237</v>
       </c>
       <c r="J21">
-        <v>1.071475531837091</v>
+        <v>1.039056011720597</v>
       </c>
       <c r="K21">
-        <v>1.074642676094226</v>
+        <v>1.047393887809091</v>
       </c>
       <c r="L21">
-        <v>1.063422772683248</v>
+        <v>1.027092287466123</v>
       </c>
       <c r="M21">
-        <v>1.082961166137732</v>
+        <v>1.049608257007189</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.064105849991591</v>
+        <v>1.003777003580029</v>
       </c>
       <c r="D22">
-        <v>1.070368797687289</v>
+        <v>1.027935283204804</v>
       </c>
       <c r="E22">
-        <v>1.059056334123165</v>
+        <v>1.006944177686462</v>
       </c>
       <c r="F22">
-        <v>1.078623167075514</v>
+        <v>1.029753252912136</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.059918966976644</v>
+        <v>1.053053511997762</v>
       </c>
       <c r="J22">
-        <v>1.0707313697279</v>
+        <v>1.034352310528176</v>
       </c>
       <c r="K22">
-        <v>1.073949802812785</v>
+        <v>1.042972932411235</v>
       </c>
       <c r="L22">
-        <v>1.062678492441738</v>
+        <v>1.022379312934293</v>
       </c>
       <c r="M22">
-        <v>1.082174744746364</v>
+        <v>1.044757470280496</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.06462907370791</v>
+        <v>1.007083258845493</v>
       </c>
       <c r="D23">
-        <v>1.07080361564111</v>
+        <v>1.030645235418493</v>
       </c>
       <c r="E23">
-        <v>1.059519404271736</v>
+        <v>1.009825507969559</v>
       </c>
       <c r="F23">
-        <v>1.079107118631064</v>
+        <v>1.032695381010589</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.060130416925206</v>
+        <v>1.054631001921479</v>
       </c>
       <c r="J23">
-        <v>1.071126079601026</v>
+        <v>1.036864225765487</v>
       </c>
       <c r="K23">
-        <v>1.074317308939809</v>
+        <v>1.045333765655093</v>
       </c>
       <c r="L23">
-        <v>1.063073308340392</v>
+        <v>1.024896438253996</v>
       </c>
       <c r="M23">
-        <v>1.082591814258136</v>
+        <v>1.047347338130564</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.066685200397161</v>
+        <v>1.019598110372294</v>
       </c>
       <c r="D24">
-        <v>1.072512317766929</v>
+        <v>1.040917360101607</v>
       </c>
       <c r="E24">
-        <v>1.061337998123502</v>
+        <v>1.020735897511164</v>
       </c>
       <c r="F24">
-        <v>1.081009822583139</v>
+        <v>1.043854160043836</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.060958202613276</v>
+        <v>1.060579282097855</v>
       </c>
       <c r="J24">
-        <v>1.07267527054414</v>
+        <v>1.046362073337686</v>
       </c>
       <c r="K24">
-        <v>1.075759720934847</v>
+        <v>1.054262102649507</v>
       </c>
       <c r="L24">
-        <v>1.064621956505239</v>
+        <v>1.034408396781917</v>
       </c>
       <c r="M24">
-        <v>1.084229981016674</v>
+        <v>1.057152559317176</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.069063707975156</v>
+        <v>1.033209003734889</v>
       </c>
       <c r="D25">
-        <v>1.074488870017843</v>
+        <v>1.052113209830632</v>
       </c>
       <c r="E25">
-        <v>1.063439351369603</v>
+        <v>1.032605979658787</v>
       </c>
       <c r="F25">
-        <v>1.083212695830281</v>
+        <v>1.056029989574352</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061909242346292</v>
+        <v>1.066999849995612</v>
       </c>
       <c r="J25">
-        <v>1.074463396906063</v>
+        <v>1.056668205040447</v>
       </c>
       <c r="K25">
-        <v>1.077424577174966</v>
+        <v>1.06395302413131</v>
       </c>
       <c r="L25">
-        <v>1.066407478462817</v>
+        <v>1.044718370012649</v>
       </c>
       <c r="M25">
-        <v>1.08612331436963</v>
+        <v>1.067816601496059</v>
       </c>
     </row>
   </sheetData>
